--- a/Monthly Economic Data.xlsx
+++ b/Monthly Economic Data.xlsx
@@ -35034,16 +35034,16 @@
         <v>0.017849746399181132</v>
       </c>
       <c r="F223" t="n">
-        <v>140.7</v>
+        <v>140.8</v>
       </c>
       <c r="G223" t="n">
-        <v>-0.006355932203389871</v>
+        <v>-0.005649717514124173</v>
       </c>
       <c r="H223" t="n">
-        <v>152.4</v>
+        <v>152.3</v>
       </c>
       <c r="I223" t="n">
-        <v>0.026954177897574122</v>
+        <v>0.02628032345013481</v>
       </c>
       <c r="J223" t="n">
         <v>4.1</v>
@@ -35191,10 +35191,10 @@
         <v>0.01959420334912414</v>
       </c>
       <c r="F224" t="n">
-        <v>141.0</v>
+        <v>141.2</v>
       </c>
       <c r="G224" t="n">
-        <v>-0.005641748942172153</v>
+        <v>-0.004231311706629215</v>
       </c>
       <c r="H224" t="n">
         <v>152.8</v>
@@ -35348,16 +35348,16 @@
         <v>0.025995936789280607</v>
       </c>
       <c r="F225" t="n">
-        <v>141.4</v>
+        <v>141.3</v>
       </c>
       <c r="G225" t="n">
-        <v>0.0</v>
+        <v>-7.07213578500667E-4</v>
       </c>
       <c r="H225" t="n">
-        <v>153.2</v>
+        <v>152.9</v>
       </c>
       <c r="I225" t="n">
-        <v>0.033738191632928474</v>
+        <v>0.031713900134952885</v>
       </c>
       <c r="J225" t="n">
         <v>4.3</v>

--- a/Monthly Economic Data.xlsx
+++ b/Monthly Economic Data.xlsx
@@ -35417,10 +35417,10 @@
         <v>-0.18761726078799248</v>
       </c>
       <c r="AC225" t="n">
-        <v>1.59507E8</v>
+        <v>1.59485E8</v>
       </c>
       <c r="AD225" t="n">
-        <v>-4000.0</v>
+        <v>-26000.0</v>
       </c>
       <c r="AE225" t="n">
         <v>7.5</v>
